--- a/Rev1/BOM.xlsx
+++ b/Rev1/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9580" yWindow="160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="234">
   <si>
     <t>Part</t>
   </si>
@@ -342,39 +342,13 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>2SK4150</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BSS101</t>
   </si>
   <si>
     <t>TO92</t>
   </si>
   <si>
-    <t>N-Channel Enhancement MOSFET 200V	 0,16A	 11Ohm</t>
-  </si>
-  <si>
-    <t>2SK4150TZ-E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルネサスエレクトロニクス株式会社(Renesas)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I-09027</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｎｃｈ　ＭＯＳＦＥＴ　２ＳＫ４１５０ＴＺ－Ｅ　（２５０Ｖ０．４Ａ）（１０個入）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Q2</t>
-  </si>
-  <si>
-    <t>2SK4150</t>
   </si>
   <si>
     <t>Q3</t>
@@ -829,13 +803,48 @@
   <si>
     <t>DC5V</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Channel Enhancement MOSFET 60V	 0,5A	 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Channel Enhancement MOSFET 60V	 0,5A	 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fairchild Semiconductor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｎｃｈ　ＭＯＳＦＥＴ　ＢＳ１７０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｎｃｈ　ＭＯＳＦＥＴ　ＢＳ１７０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BSS170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-09724</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +892,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1013,7 +1029,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1069,8 +1085,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1090,8 +1114,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="63">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1119,6 +1144,10 @@
     <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1147,6 +1176,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1862,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="H92" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1907,16 +1940,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1">
@@ -2004,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -2460,7 +2493,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>70</v>
@@ -2538,16 +2571,16 @@
         <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2570,16 +2603,16 @@
         <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2602,16 +2635,16 @@
         <v>88</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2636,16 +2669,16 @@
         <v>88</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2653,135 +2686,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="19">
       <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>100</v>
+        <v>232</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="19">
       <c r="A25" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>100</v>
+        <v>232</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="19">
       <c r="A26" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>100</v>
+        <v>232</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1">
       <c r="A27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2791,31 +2824,31 @@
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2825,31 +2858,31 @@
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2859,31 +2892,31 @@
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -2893,31 +2926,31 @@
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2927,31 +2960,31 @@
     </row>
     <row r="32" spans="1:12" s="11" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2961,31 +2994,31 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -2995,31 +3028,31 @@
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3029,31 +3062,31 @@
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3063,31 +3096,31 @@
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -3097,31 +3130,31 @@
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -3131,31 +3164,31 @@
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3165,31 +3198,31 @@
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -3199,31 +3232,31 @@
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -3233,31 +3266,31 @@
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3267,31 +3300,31 @@
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H42" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -3301,31 +3334,31 @@
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3335,31 +3368,31 @@
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3369,31 +3402,31 @@
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3403,31 +3436,31 @@
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3437,31 +3470,31 @@
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3471,31 +3504,31 @@
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1">
       <c r="A48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3505,31 +3538,31 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3539,31 +3572,31 @@
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1">
       <c r="A50" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3573,31 +3606,31 @@
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1">
       <c r="A51" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3607,31 +3640,31 @@
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1">
       <c r="A52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3641,19 +3674,19 @@
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3667,26 +3700,26 @@
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3702,17 +3735,17 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="2">
@@ -3726,17 +3759,17 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="2">
@@ -3750,17 +3783,17 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="2">
@@ -3774,13 +3807,13 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3798,13 +3831,13 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3822,13 +3855,13 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3846,13 +3879,13 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3870,13 +3903,13 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3894,17 +3927,17 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="12">
@@ -3925,7 +3958,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="16">
         <f>SUM(L2:L63)</f>
-        <v>5855.8</v>
+        <v>5840.8</v>
       </c>
     </row>
   </sheetData>
